--- a/Files/RunManager.xlsx
+++ b/Files/RunManager.xlsx
@@ -666,7 +666,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -684,6 +684,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="2"/>
@@ -1990,33 +1992,35 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.5703125" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="5.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -2028,63 +2032,63 @@
       <c r="F1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>99</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -2096,45 +2100,45 @@
       <c r="F2" s="10">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -2146,41 +2150,41 @@
       <c r="F3" s="10">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>101</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -2192,45 +2196,45 @@
       <c r="F4" s="10">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>102</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -2240,41 +2244,41 @@
       <c r="F5" s="10">
         <v>3</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>103</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -2286,412 +2290,412 @@
       <c r="F6" s="10">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">

--- a/Files/RunManager.xlsx
+++ b/Files/RunManager.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="173">
   <si>
     <t>Mod_ID</t>
   </si>
@@ -532,6 +532,18 @@
   </si>
   <si>
     <t>SelectGapp,3</t>
+  </si>
+  <si>
+    <t>dummyOne</t>
+  </si>
+  <si>
+    <t>dummyTwo</t>
+  </si>
+  <si>
+    <t>dummyThree</t>
+  </si>
+  <si>
+    <t>dummyTwo,3</t>
   </si>
 </sst>
 </file>
@@ -694,7 +706,7 @@
     <cellStyle name="Normal 3" xfId="4"/>
     <cellStyle name="Normal 4" xfId="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -726,13 +738,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -749,6 +754,23 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1120,7 +1142,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -1279,7 +1301,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1340,17 +1362,17 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="38.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="14" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -1434,42 +1456,38 @@
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="b">
+      <c r="B2" s="6" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="E2" s="10">
         <v>1</v>
       </c>
       <c r="F2" s="10">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="K2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -1619,25 +1637,35 @@
         <v>24</v>
       </c>
       <c r="B6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="E6" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="10">
-        <v>5</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -1960,8 +1988,13 @@
       <c r="S19" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+  <conditionalFormatting sqref="B1 B3:B1048576">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1992,17 +2025,17 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="5.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="7" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="38.85546875" style="7" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="14" style="7" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="13.140625" style="7" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" style="7" customWidth="1"/>
@@ -2142,13 +2175,13 @@
         <v>100</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="E3" s="10">
         <v>1</v>
       </c>
       <c r="F3" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>72</v>
@@ -2203,20 +2236,15 @@
         <v>73</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="M4" s="12" t="s">
         <v>78</v>
       </c>
+      <c r="L4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
@@ -2240,9 +2268,11 @@
       <c r="D5" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
       <c r="F5" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>72</v>
@@ -2251,7 +2281,7 @@
         <v>73</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>75</v>
@@ -2260,7 +2290,6 @@
         <v>78</v>
       </c>
       <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
@@ -2317,16 +2346,36 @@
       <c r="C7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="D7" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
@@ -2347,14 +2396,30 @@
       <c r="C8" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="D8" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
@@ -2377,9 +2442,15 @@
       <c r="C9" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="D9" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -2407,9 +2478,15 @@
       <c r="C10" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="D10" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -2437,9 +2514,15 @@
       <c r="C11" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="D11" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -2467,9 +2550,15 @@
       <c r="C12" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="D12" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -2497,9 +2586,15 @@
       <c r="C13" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="D13" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -2527,9 +2622,15 @@
       <c r="C14" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="D14" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -2557,9 +2658,15 @@
       <c r="C15" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="D15" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -2587,9 +2694,15 @@
       <c r="C16" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="D16" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -2617,9 +2730,15 @@
       <c r="C17" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="D17" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -2647,9 +2766,15 @@
       <c r="C18" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="D18" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -2677,9 +2802,15 @@
       <c r="C19" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="D19" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -2699,19 +2830,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Run From">
-      <formula>NOT(ISERROR(SEARCH("Run From",D1)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="one">
+      <formula>NOT(ISERROR(SEARCH("one",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="all">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="all">
       <formula>NOT(ISERROR(SEARCH("all",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="one">
-      <formula>NOT(ISERROR(SEARCH("one",D1)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Run From">
+      <formula>NOT(ISERROR(SEARCH("Run From",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -2729,7 +2860,7 @@
           <x14:formula1>
             <xm:f>IterationOptions!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D6</xm:sqref>
+          <xm:sqref>D2:D19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2742,10 +2873,10 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11:J11"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2783,43 +2914,43 @@
         <v>139</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -3003,6 +3134,15 @@
       <c r="C7" s="6" t="s">
         <v>104</v>
       </c>
+      <c r="D7" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="10">
+        <v>3</v>
+      </c>
+      <c r="F7" s="10">
+        <v>5</v>
+      </c>
       <c r="G7" s="4" t="s">
         <v>80</v>
       </c>
@@ -3030,6 +3170,15 @@
       </c>
       <c r="C8" s="6" t="s">
         <v>105</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="10">
+        <v>3</v>
+      </c>
+      <c r="F8" s="10">
+        <v>5</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -3055,6 +3204,15 @@
       <c r="C9" s="6" t="s">
         <v>106</v>
       </c>
+      <c r="D9" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="10">
+        <v>3</v>
+      </c>
+      <c r="F9" s="10">
+        <v>5</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -3079,6 +3237,15 @@
       <c r="C10" s="6" t="s">
         <v>107</v>
       </c>
+      <c r="D10" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="10">
+        <v>3</v>
+      </c>
+      <c r="F10" s="10">
+        <v>5</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -3098,10 +3265,19 @@
         <v>127</v>
       </c>
       <c r="B11" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>108</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="10">
+        <v>3</v>
+      </c>
+      <c r="F11" s="10">
+        <v>5</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>79</v>
@@ -3140,6 +3316,15 @@
       </c>
       <c r="C12" s="6" t="s">
         <v>109</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="10">
+        <v>3</v>
+      </c>
+      <c r="F12" s="10">
+        <v>5</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -3165,6 +3350,15 @@
       <c r="C13" s="6" t="s">
         <v>110</v>
       </c>
+      <c r="D13" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="10">
+        <v>3</v>
+      </c>
+      <c r="F13" s="10">
+        <v>5</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -3189,6 +3383,15 @@
       <c r="C14" s="6" t="s">
         <v>111</v>
       </c>
+      <c r="D14" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="10">
+        <v>3</v>
+      </c>
+      <c r="F14" s="10">
+        <v>5</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -3213,6 +3416,15 @@
       <c r="C15" s="6" t="s">
         <v>112</v>
       </c>
+      <c r="D15" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="10">
+        <v>3</v>
+      </c>
+      <c r="F15" s="10">
+        <v>5</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -3237,6 +3449,15 @@
       <c r="C16" s="6" t="s">
         <v>113</v>
       </c>
+      <c r="D16" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="10">
+        <v>3</v>
+      </c>
+      <c r="F16" s="10">
+        <v>5</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -3261,6 +3482,15 @@
       <c r="C17" s="6" t="s">
         <v>114</v>
       </c>
+      <c r="D17" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="10">
+        <v>3</v>
+      </c>
+      <c r="F17" s="10">
+        <v>5</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -3285,6 +3515,15 @@
       <c r="C18" s="6" t="s">
         <v>115</v>
       </c>
+      <c r="D18" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="10">
+        <v>3</v>
+      </c>
+      <c r="F18" s="10">
+        <v>5</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -3304,14 +3543,29 @@
         <v>135</v>
       </c>
       <c r="B19" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="D19" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -3325,7 +3579,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3342,7 +3596,7 @@
           <x14:formula1>
             <xm:f>IterationOptions!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D6</xm:sqref>
+          <xm:sqref>D2:D19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3654,7 +3908,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B6">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3984,7 +4238,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B6">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
